--- a/Projeto 2 - parte 2/Results_tensao.xlsx
+++ b/Projeto 2 - parte 2/Results_tensao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Farinha\Desktop\MCL\Parte2\Final_tensao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9808AF17-0A85-4584-A231-DD64AAA2EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A91BF81-E831-45E3-A0D7-882DDC3750C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -223,6 +223,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -239,13 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +554,7 @@
   <dimension ref="A2:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,34 +566,34 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -595,7 +608,7 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -607,13 +620,13 @@
       <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -627,23 +640,35 @@
       <c r="C5" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="12">
         <v>10.619</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f>-1*F52</f>
         <v>6.9690000000000003</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <f>-1*G52</f>
         <v>3.528</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="3">
         <f>-1*H52</f>
         <v>4.5590000000000002</v>
+      </c>
+      <c r="I5" s="3">
+        <f>-1*I52</f>
+        <v>7.9519999999999998E-5</v>
+      </c>
+      <c r="J5" s="3">
+        <f>-1*J52</f>
+        <v>1.4229999999999999E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <f>-1*K52</f>
+        <v>7.3050000000000003E-4</v>
       </c>
       <c r="R5" t="s">
         <v>17</v>
@@ -665,23 +690,35 @@
       <c r="C6" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <v>10.619</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f>-1*F51</f>
         <v>6.3890000000000002</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <f>-1*G51</f>
         <v>3.234</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="3">
         <f>-1*H51</f>
         <v>4.1790000000000003</v>
+      </c>
+      <c r="I6" s="3">
+        <f>-1*I51</f>
+        <v>7.2890000000000002E-5</v>
+      </c>
+      <c r="J6" s="3">
+        <f>-1*J51</f>
+        <v>1.304E-4</v>
+      </c>
+      <c r="K6" s="3">
+        <f>-1*K51</f>
+        <v>6.6960000000000001E-4</v>
       </c>
       <c r="Q6" t="s">
         <v>7</v>
@@ -706,23 +743,35 @@
       <c r="C7" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>10.619</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f>-1*F50</f>
         <v>6.3890000000000002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f>-1*G50</f>
         <v>3.234</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="3">
         <f>-1*H50</f>
         <v>4.1790000000000003</v>
+      </c>
+      <c r="I7" s="3">
+        <f>-1*I50</f>
+        <v>7.2890000000000002E-5</v>
+      </c>
+      <c r="J7" s="3">
+        <f>-1*J50</f>
+        <v>1.304E-4</v>
+      </c>
+      <c r="K7" s="3">
+        <f>-1*K50</f>
+        <v>6.6960000000000001E-4</v>
       </c>
       <c r="Q7" t="s">
         <v>20</v>
@@ -738,23 +787,35 @@
       <c r="C8" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <v>10.619</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f>-1*F49</f>
         <v>5.8079999999999998</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <f>-1*G49</f>
         <v>2.94</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="3">
         <f>-1*H49</f>
         <v>3.7989999999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <f>-1*I49</f>
+        <v>6.6260000000000006E-5</v>
+      </c>
+      <c r="J8" s="3">
+        <f>-1*J49</f>
+        <v>1.186E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <f>-1*K49</f>
+        <v>6.0880000000000005E-4</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -767,23 +828,35 @@
       <c r="C9" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f>-1*F48</f>
         <v>5.8079999999999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <f>-1*G48</f>
         <v>2.94</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="3">
         <f>-1*H48</f>
         <v>3.7989999999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <f>-1*I48</f>
+        <v>6.6260000000000006E-5</v>
+      </c>
+      <c r="J9" s="3">
+        <f>-1*J48</f>
+        <v>1.186E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <f>-1*K48</f>
+        <v>6.0880000000000005E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -796,23 +869,35 @@
       <c r="C10" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <f>-1*F47</f>
         <v>5.2270000000000003</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <f>-1*G47</f>
         <v>2.6459999999999999</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="3">
         <f>-1*H47</f>
         <v>3.419</v>
+      </c>
+      <c r="I10" s="3">
+        <f>-1*I47</f>
+        <v>5.9639999999999998E-5</v>
+      </c>
+      <c r="J10" s="3">
+        <f>-1*J47</f>
+        <v>1.0670000000000001E-4</v>
+      </c>
+      <c r="K10" s="3">
+        <f>-1*K47</f>
+        <v>5.4790000000000004E-4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -825,23 +910,35 @@
       <c r="C11" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <f>-1*F46</f>
         <v>5.2270000000000003</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <f>-1*G46</f>
         <v>2.6459999999999999</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="3">
         <f>-1*H46</f>
         <v>3.419</v>
+      </c>
+      <c r="I11" s="3">
+        <f>-1*I46</f>
+        <v>5.9639999999999998E-5</v>
+      </c>
+      <c r="J11" s="3">
+        <f>-1*J46</f>
+        <v>1.0670000000000001E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <f>-1*K46</f>
+        <v>5.4790000000000004E-4</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -854,23 +951,35 @@
       <c r="C12" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f>-1*F45</f>
         <v>4.6459999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <f>-1*G45</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="3">
         <f>-1*H45</f>
         <v>3.0390000000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <f>-1*I45</f>
+        <v>5.3010000000000002E-5</v>
+      </c>
+      <c r="J12" s="3">
+        <f>-1*J45</f>
+        <v>9.4840000000000007E-5</v>
+      </c>
+      <c r="K12" s="3">
+        <f>-1*K45</f>
+        <v>4.8700000000000002E-4</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -883,23 +992,35 @@
       <c r="C13" s="3">
         <v>23.032</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="13">
         <v>-8.9866000000000005E-8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <f>-1*F44</f>
         <v>7.548</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <f>-1*G44</f>
         <v>1.742</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="3">
         <f>-1*H44</f>
         <v>-3.0390000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <f>-1*I44</f>
+        <v>9.8480000000000006E-5</v>
+      </c>
+      <c r="J13" s="3">
+        <f>-1*J44</f>
+        <v>5.3010000000000002E-5</v>
+      </c>
+      <c r="K13" s="3">
+        <f>-1*K44</f>
+        <v>-4.8700000000000002E-4</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -912,23 +1033,35 @@
       <c r="C14" s="3">
         <v>23.032</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="13">
         <v>-8.9866000000000005E-8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f>-1*F43</f>
         <v>6.6050000000000004</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <f>-1*G43</f>
         <v>1.524</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="3">
         <f>-1*H43</f>
         <v>-2.6589999999999998</v>
+      </c>
+      <c r="I14" s="3">
+        <f>-1*I43</f>
+        <v>8.2990000000000003E-5</v>
+      </c>
+      <c r="J14" s="3">
+        <f>-1*J43</f>
+        <v>4.638E-5</v>
+      </c>
+      <c r="K14" s="3">
+        <f>-1*K43</f>
+        <v>-4.261E-4</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -941,23 +1074,35 @@
       <c r="C15" s="3">
         <v>23.032</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="13">
         <v>-8.9866000000000005E-8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <f>-1*F42</f>
         <v>6.6050000000000004</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <f>-1*G42</f>
         <v>1.524</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="3">
         <f>-1*H42</f>
         <v>-2.6589999999999998</v>
+      </c>
+      <c r="I15" s="3">
+        <f>-1*I42</f>
+        <v>8.2990000000000003E-5</v>
+      </c>
+      <c r="J15" s="3">
+        <f>-1*J42</f>
+        <v>4.638E-5</v>
+      </c>
+      <c r="K15" s="3">
+        <f>-1*K42</f>
+        <v>-4.261E-4</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -970,26 +1115,38 @@
       <c r="C16" s="3">
         <v>-1.7831999999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="13">
         <v>8.9866000000000005E-8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <f>-1*F41</f>
         <v>5.6609999999999996</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <f>-1*G41</f>
         <v>1.3069999999999999</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="3">
         <f>-1*H41</f>
         <v>-2.2789999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <f>-1*I41</f>
+        <v>7.1130000000000005E-5</v>
+      </c>
+      <c r="J16" s="3">
+        <f>-1*J41</f>
+        <v>3.9759999999999999E-5</v>
+      </c>
+      <c r="K16" s="3">
+        <f>-1*K41</f>
+        <v>-3.6529999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -999,26 +1156,38 @@
       <c r="C17" s="3">
         <v>-1.7831999999999999</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="13">
         <v>8.9866000000000005E-8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <f>-1*F40</f>
         <v>5.6609999999999996</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <f>-1*G40</f>
         <v>1.3069999999999999</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="3">
         <f>-1*H40</f>
         <v>-2.2789999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <f>-1*I40</f>
+        <v>7.1130000000000005E-5</v>
+      </c>
+      <c r="J17" s="3">
+        <f>-1*J40</f>
+        <v>3.9759999999999999E-5</v>
+      </c>
+      <c r="K17" s="3">
+        <f>-1*K40</f>
+        <v>-3.6529999999999999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>90</v>
       </c>
@@ -1028,26 +1197,38 @@
       <c r="C18" s="3">
         <v>23.032</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="13">
         <v>-8.9866000000000005E-8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <f>-1*F39</f>
         <v>4.718</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <f>-1*G39</f>
         <v>1.089</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="3">
         <f>-1*H39</f>
         <v>-1.899</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <f>-1*I39</f>
+        <v>5.9280000000000002E-5</v>
+      </c>
+      <c r="J18" s="3">
+        <f>-1*J39</f>
+        <v>3.3130000000000003E-5</v>
+      </c>
+      <c r="K18" s="3">
+        <f>-1*K39</f>
+        <v>-3.0440000000000003E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>90</v>
       </c>
@@ -1057,26 +1238,38 @@
       <c r="C19" s="3">
         <v>23.032</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="13">
         <v>-8.9866000000000005E-8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <f>-1*F38</f>
         <v>4.718</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <f>-1*G38</f>
         <v>1.089</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="3">
         <f>-1*H38</f>
         <v>-1.899</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <f>-1*I38</f>
+        <v>5.9280000000000002E-5</v>
+      </c>
+      <c r="J19" s="3">
+        <f>-1*J38</f>
+        <v>3.3130000000000003E-5</v>
+      </c>
+      <c r="K19" s="3">
+        <f>-1*K38</f>
+        <v>-3.0440000000000003E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>90</v>
       </c>
@@ -1086,26 +1279,38 @@
       <c r="C20" s="3">
         <v>23.032</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="13">
         <v>-8.9866000000000005E-8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <f>-1*F37</f>
         <v>3.774</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <f>-1*G37</f>
         <v>0.87109999999999999</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="3">
         <f>-1*H37</f>
         <v>-1.52</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3">
+        <f>-1*I37</f>
+        <v>4.7420000000000003E-5</v>
+      </c>
+      <c r="J20" s="3">
+        <f>-1*J37</f>
+        <v>2.6509999999999999E-5</v>
+      </c>
+      <c r="K20" s="3">
+        <f>-1*K37</f>
+        <v>-2.4350000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45</v>
       </c>
@@ -1115,26 +1320,38 @@
       <c r="C21" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <f>-1*F36</f>
         <v>-5.3970000000000002</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <f>-1*G36</f>
         <v>2.7989999999999999</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="3">
         <f>-1*H36</f>
         <v>-0.1305</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <f>-1*I36</f>
+        <v>-8.4790000000000006E-5</v>
+      </c>
+      <c r="J21" s="3">
+        <f>-1*J36</f>
+        <v>1.5870000000000001E-4</v>
+      </c>
+      <c r="K21" s="3">
+        <f>-1*K36</f>
+        <v>-2.092E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45</v>
       </c>
@@ -1144,26 +1361,38 @@
       <c r="C22" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <f>-1*F35</f>
         <v>-4.048</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <f>-1*G35</f>
         <v>2.0990000000000002</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="3">
         <f>-1*H35</f>
         <v>-9.7890000000000005E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3">
+        <f>-1*I35</f>
+        <v>-6.3590000000000006E-5</v>
+      </c>
+      <c r="J22" s="3">
+        <f>-1*J35</f>
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="K22" s="3">
+        <f>-1*K35</f>
+        <v>-1.5690000000000001E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45</v>
       </c>
@@ -1173,26 +1402,38 @@
       <c r="C23" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <f>-1*F34</f>
         <v>-4.048</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <f>-1*G34</f>
         <v>2.0990000000000002</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="3">
         <f>-1*H34</f>
         <v>-9.7890000000000005E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <f>-1*I34</f>
+        <v>-6.3590000000000006E-5</v>
+      </c>
+      <c r="J23" s="3">
+        <f>-1*J34</f>
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="K23" s="3">
+        <f>-1*K34</f>
+        <v>-1.5690000000000001E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45</v>
       </c>
@@ -1202,26 +1443,38 @@
       <c r="C24" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="12">
         <v>-10.619</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <f>-1*F33</f>
         <v>-2.6989999999999998</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <f>-1*G33</f>
         <v>1.4</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="3">
         <f>-1*H33</f>
         <v>-6.5259999999999999E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3">
+        <f>-1*I33</f>
+        <v>-4.2400000000000001E-5</v>
+      </c>
+      <c r="J24" s="3">
+        <f>-1*J33</f>
+        <v>7.9359999999999999E-5</v>
+      </c>
+      <c r="K24" s="3">
+        <f>-1*K33</f>
+        <v>-1.046E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>-45</v>
       </c>
@@ -1231,26 +1484,38 @@
       <c r="C25" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="12">
         <v>10.619</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <f>-1*F32</f>
         <v>-2.6989999999999998</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <f>-1*G32</f>
         <v>1.4</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="3">
         <f>-1*H32</f>
         <v>-6.5259999999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3">
+        <f>-1*I32</f>
+        <v>-4.2400000000000001E-5</v>
+      </c>
+      <c r="J25" s="3">
+        <f>-1*J32</f>
+        <v>7.9359999999999999E-5</v>
+      </c>
+      <c r="K25" s="3">
+        <f>-1*K32</f>
+        <v>-1.046E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>-45</v>
       </c>
@@ -1260,26 +1525,38 @@
       <c r="C26" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="12">
         <v>10.619</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <f>-1*F31</f>
         <v>-1.349</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <f>-1*G31</f>
         <v>0.69979999999999998</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="3">
         <f>-1*H31</f>
         <v>-3.2629999999999999E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3">
+        <f>-1*I31</f>
+        <v>-2.12E-5</v>
+      </c>
+      <c r="J26" s="3">
+        <f>-1*J31</f>
+        <v>3.968E-5</v>
+      </c>
+      <c r="K26" s="3">
+        <f>-1*K31</f>
+        <v>-5.2290000000000002E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>-45</v>
       </c>
@@ -1289,23 +1566,32 @@
       <c r="C27" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="12">
         <v>10.619</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>2.8740000000000001</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>-0.188</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="4">
         <v>3.2599999999999997E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="4">
+        <v>3.968E-5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-2.12E-5</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5.2290000000000002E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>-45</v>
       </c>
@@ -1315,380 +1601,581 @@
       <c r="C28" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="12">
         <v>10.619</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="4">
         <v>4.198E-15</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4">
         <v>-2.7460000000000001E-16</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="4">
         <v>-4.767E-17</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+      <c r="I28" s="4">
+        <v>5.7960000000000003E-20</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-3.0970000000000003E-20</v>
+      </c>
+      <c r="K28" s="4">
+        <v>7.6389999999999997E-21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <v>-4.198E-15</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>2.7460000000000001E-16</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="4">
         <v>-4.767E-17</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+      <c r="I29" s="4">
+        <v>-5.7960000000000003E-20</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3.0970000000000003E-20</v>
+      </c>
+      <c r="K29" s="4">
+        <v>-7.6389999999999997E-21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>-2.8740000000000001</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>0.188</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="4">
         <v>-3.2629999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+      <c r="I30" s="4">
+        <v>-3.968E-5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2.12E-5</v>
+      </c>
+      <c r="K30" s="4">
+        <v>-5.2290000000000002E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1.349</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>-0.69979999999999998</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="3">
         <v>3.2629999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
+      <c r="I31" s="4">
+        <v>2.12E-5</v>
+      </c>
+      <c r="J31" s="4">
+        <v>-3.968E-5</v>
+      </c>
+      <c r="K31" s="4">
+        <v>5.2290000000000002E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>2.6989999999999998</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>-1.4</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="3">
         <v>6.5259999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
+      <c r="I32" s="4">
+        <v>4.2400000000000001E-5</v>
+      </c>
+      <c r="J32" s="4">
+        <v>-7.9359999999999999E-5</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.046E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>2.6989999999999998</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>-1.4</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="3">
         <v>6.5259999999999999E-2</v>
       </c>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+      <c r="I33" s="4">
+        <v>4.2400000000000001E-5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>-7.9359999999999999E-5</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.046E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>4.048</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>-2.0990000000000002</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="3">
         <v>9.7890000000000005E-2</v>
       </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+      <c r="I34" s="4">
+        <v>6.3590000000000006E-5</v>
+      </c>
+      <c r="J34" s="4">
+        <v>-1.1900000000000001E-4</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.5690000000000001E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>4.048</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>-2.0990000000000002</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="3">
         <v>9.7890000000000005E-2</v>
       </c>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+      <c r="I35" s="4">
+        <v>6.3590000000000006E-5</v>
+      </c>
+      <c r="J35" s="4">
+        <v>-1.1900000000000001E-4</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.5690000000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>5.3970000000000002</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>-2.7989999999999999</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="3">
         <v>0.1305</v>
       </c>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+      <c r="I36" s="4">
+        <v>8.4790000000000006E-5</v>
+      </c>
+      <c r="J36" s="4">
+        <v>-1.5870000000000001E-4</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2.092E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>-3.774</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>-0.87109999999999999</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="3">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
+      <c r="I37" s="4">
+        <v>-4.7420000000000003E-5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>-2.6509999999999999E-5</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2.4350000000000001E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>-4.718</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>-1.089</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="3">
         <v>1.899</v>
       </c>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
+      <c r="I38" s="4">
+        <v>-5.9280000000000002E-5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>-3.3130000000000003E-5</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3.0440000000000003E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>-4.718</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>-1.089</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="3">
         <v>1.899</v>
       </c>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+      <c r="I39" s="4">
+        <v>-5.9280000000000002E-5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>-3.3130000000000003E-5</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3.0440000000000003E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>-5.6609999999999996</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>-1.3069999999999999</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="3">
         <v>2.2789999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+      <c r="I40" s="4">
+        <v>-7.1130000000000005E-5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>-3.9759999999999999E-5</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3.6529999999999999E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>-5.6609999999999996</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>-1.3069999999999999</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="3">
         <v>2.2789999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+      <c r="I41" s="4">
+        <v>-7.1130000000000005E-5</v>
+      </c>
+      <c r="J41" s="4">
+        <v>-3.9759999999999999E-5</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3.6529999999999999E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>-6.6050000000000004</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>-1.524</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="3">
         <v>2.6589999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
+      <c r="I42" s="4">
+        <v>-8.2990000000000003E-5</v>
+      </c>
+      <c r="J42" s="4">
+        <v>-4.638E-5</v>
+      </c>
+      <c r="K42" s="4">
+        <v>4.261E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>-6.6050000000000004</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>-1.524</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="3">
         <v>2.6589999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
+      <c r="I43" s="4">
+        <v>-8.2990000000000003E-5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>-4.638E-5</v>
+      </c>
+      <c r="K43" s="4">
+        <v>4.261E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>-7.548</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>-1.742</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="3">
         <v>3.0390000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="7" t="s">
+      <c r="I44" s="4">
+        <v>-9.8480000000000006E-5</v>
+      </c>
+      <c r="J44" s="4">
+        <v>-5.3010000000000002E-5</v>
+      </c>
+      <c r="K44" s="4">
+        <v>4.8700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>-4.6459999999999999</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>-2.3519999999999999</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="3">
         <v>-3.0390000000000001</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="4">
         <v>-5.3010000000000002E-5</v>
       </c>
-    </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="7" t="s">
+      <c r="J45" s="4">
+        <v>-9.4840000000000007E-5</v>
+      </c>
+      <c r="K45" s="4">
+        <v>-4.8700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>-5.2270000000000003</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>-2.6459999999999999</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="3">
         <v>-3.419</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="4">
         <v>-5.9639999999999998E-5</v>
       </c>
-    </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="7" t="s">
+      <c r="J46" s="4">
+        <v>-1.0670000000000001E-4</v>
+      </c>
+      <c r="K46" s="4">
+        <v>-5.4790000000000004E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>-5.2270000000000003</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>-2.6459999999999999</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="3">
         <v>-3.419</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="4">
         <v>-5.9639999999999998E-5</v>
       </c>
-    </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="7" t="s">
+      <c r="J47" s="4">
+        <v>-1.0670000000000001E-4</v>
+      </c>
+      <c r="K47" s="4">
+        <v>-5.4790000000000004E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>-5.8079999999999998</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>-2.94</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="3">
         <v>-3.7989999999999999</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="4">
         <v>-6.6260000000000006E-5</v>
       </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="7" t="s">
+      <c r="J48" s="4">
+        <v>-1.186E-4</v>
+      </c>
+      <c r="K48" s="4">
+        <v>-6.0880000000000005E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>-5.8079999999999998</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>-2.94</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="3">
         <v>-3.7989999999999999</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="4">
         <v>-6.6260000000000006E-5</v>
       </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="7" t="s">
+      <c r="J49" s="4">
+        <v>-1.186E-4</v>
+      </c>
+      <c r="K49" s="4">
+        <v>-6.0880000000000005E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>-6.3890000000000002</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>-3.234</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="3">
         <v>-4.1790000000000003</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="4">
         <v>-7.2890000000000002E-5</v>
       </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="7" t="s">
+      <c r="J50" s="4">
+        <v>-1.304E-4</v>
+      </c>
+      <c r="K50" s="4">
+        <v>-6.6960000000000001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>-6.3890000000000002</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>-3.234</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="3">
         <v>-4.1790000000000003</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="4">
         <v>-7.2890000000000002E-5</v>
       </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="7" t="s">
+      <c r="J51" s="4">
+        <v>-1.304E-4</v>
+      </c>
+      <c r="K51" s="4">
+        <v>-6.6960000000000001E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>-6.9690000000000003</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>-3.528</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="3">
         <v>-4.5590000000000002</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="4">
         <v>-7.9519999999999998E-5</v>
+      </c>
+      <c r="J52" s="4">
+        <v>-1.4229999999999999E-4</v>
+      </c>
+      <c r="K52" s="4">
+        <v>-7.3050000000000003E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto 2 - parte 2/Results_tensao.xlsx
+++ b/Projeto 2 - parte 2/Results_tensao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Farinha\Desktop\MCL\Parte2\Final_tensao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A91BF81-E831-45E3-A0D7-882DDC3750C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AC29F-64B5-404D-92AB-21016E255FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -258,6 +258,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,10 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,11 +566,11 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
       <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
@@ -579,11 +579,11 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
       <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
@@ -608,7 +608,7 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -640,34 +640,34 @@
       <c r="C5" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>10.619</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f>-1*F52</f>
-        <v>6.9690000000000003</v>
+        <f t="shared" ref="F5:G5" si="0">-1*F52</f>
+        <v>12.455</v>
       </c>
       <c r="G5" s="3">
-        <f>-1*G52</f>
-        <v>3.528</v>
+        <f t="shared" si="0"/>
+        <v>5.9634999999999998</v>
       </c>
       <c r="H5" s="3">
-        <f>-1*H52</f>
-        <v>4.5590000000000002</v>
+        <f t="shared" ref="H5" si="1">-1*H52</f>
+        <v>5.83</v>
       </c>
       <c r="I5" s="3">
-        <f>-1*I52</f>
+        <f t="shared" ref="I5:K5" si="2">-1*I52</f>
         <v>7.9519999999999998E-5</v>
       </c>
       <c r="J5" s="3">
-        <f>-1*J52</f>
+        <f t="shared" si="2"/>
         <v>1.4229999999999999E-4</v>
       </c>
       <c r="K5" s="3">
-        <f>-1*K52</f>
+        <f t="shared" si="2"/>
         <v>7.3050000000000003E-4</v>
       </c>
       <c r="R5" t="s">
@@ -690,34 +690,34 @@
       <c r="C6" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>10.619</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3">
-        <f>-1*F51</f>
-        <v>6.3890000000000002</v>
+        <f t="shared" ref="F6:G6" si="3">-1*F51</f>
+        <v>11.42</v>
       </c>
       <c r="G6" s="3">
-        <f>-1*G51</f>
-        <v>3.234</v>
+        <f t="shared" si="3"/>
+        <v>5.4664999999999999</v>
       </c>
       <c r="H6" s="3">
-        <f>-1*H51</f>
-        <v>4.1790000000000003</v>
+        <f t="shared" ref="H6" si="4">-1*H51</f>
+        <v>5.3440000000000003</v>
       </c>
       <c r="I6" s="3">
-        <f>-1*I51</f>
+        <f t="shared" ref="I6:K6" si="5">-1*I51</f>
         <v>7.2890000000000002E-5</v>
       </c>
       <c r="J6" s="3">
-        <f>-1*J51</f>
+        <f t="shared" si="5"/>
         <v>1.304E-4</v>
       </c>
       <c r="K6" s="3">
-        <f>-1*K51</f>
+        <f t="shared" si="5"/>
         <v>6.6960000000000001E-4</v>
       </c>
       <c r="Q6" t="s">
@@ -743,34 +743,34 @@
       <c r="C7" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>10.619</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3">
-        <f>-1*F50</f>
-        <v>6.3890000000000002</v>
+        <f t="shared" ref="F7:G7" si="6">-1*F50</f>
+        <v>11.42</v>
       </c>
       <c r="G7" s="3">
-        <f>-1*G50</f>
-        <v>3.234</v>
+        <f t="shared" si="6"/>
+        <v>5.4664999999999999</v>
       </c>
       <c r="H7" s="3">
-        <f>-1*H50</f>
-        <v>4.1790000000000003</v>
+        <f t="shared" ref="H7" si="7">-1*H50</f>
+        <v>5.3440000000000003</v>
       </c>
       <c r="I7" s="3">
-        <f>-1*I50</f>
+        <f t="shared" ref="I7:K7" si="8">-1*I50</f>
         <v>7.2890000000000002E-5</v>
       </c>
       <c r="J7" s="3">
-        <f>-1*J50</f>
+        <f t="shared" si="8"/>
         <v>1.304E-4</v>
       </c>
       <c r="K7" s="3">
-        <f>-1*K50</f>
+        <f t="shared" si="8"/>
         <v>6.6960000000000001E-4</v>
       </c>
       <c r="Q7" t="s">
@@ -787,34 +787,34 @@
       <c r="C8" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>10.619</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3">
-        <f>-1*F49</f>
-        <v>5.8079999999999998</v>
+        <f t="shared" ref="F8:G8" si="9">-1*F49</f>
+        <v>10.375</v>
       </c>
       <c r="G8" s="3">
-        <f>-1*G49</f>
-        <v>2.94</v>
+        <f t="shared" si="9"/>
+        <v>4.97</v>
       </c>
       <c r="H8" s="3">
-        <f>-1*H49</f>
-        <v>3.7989999999999999</v>
+        <f t="shared" ref="H8" si="10">-1*H49</f>
+        <v>4.8579999999999997</v>
       </c>
       <c r="I8" s="3">
-        <f>-1*I49</f>
+        <f t="shared" ref="I8:K8" si="11">-1*I49</f>
         <v>6.6260000000000006E-5</v>
       </c>
       <c r="J8" s="3">
-        <f>-1*J49</f>
+        <f t="shared" si="11"/>
         <v>1.186E-4</v>
       </c>
       <c r="K8" s="3">
-        <f>-1*K49</f>
+        <f t="shared" si="11"/>
         <v>6.0880000000000005E-4</v>
       </c>
     </row>
@@ -828,34 +828,34 @@
       <c r="C9" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>-10.619</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3">
-        <f>-1*F48</f>
-        <v>5.8079999999999998</v>
+        <f t="shared" ref="F9:G9" si="12">-1*F48</f>
+        <v>10.375</v>
       </c>
       <c r="G9" s="3">
-        <f>-1*G48</f>
-        <v>2.94</v>
+        <f t="shared" si="12"/>
+        <v>4.97</v>
       </c>
       <c r="H9" s="3">
-        <f>-1*H48</f>
-        <v>3.7989999999999999</v>
+        <f t="shared" ref="H9" si="13">-1*H48</f>
+        <v>4.8579999999999997</v>
       </c>
       <c r="I9" s="3">
-        <f>-1*I48</f>
+        <f t="shared" ref="I9:K9" si="14">-1*I48</f>
         <v>6.6260000000000006E-5</v>
       </c>
       <c r="J9" s="3">
-        <f>-1*J48</f>
+        <f t="shared" si="14"/>
         <v>1.186E-4</v>
       </c>
       <c r="K9" s="3">
-        <f>-1*K48</f>
+        <f t="shared" si="14"/>
         <v>6.0880000000000005E-4</v>
       </c>
     </row>
@@ -869,34 +869,34 @@
       <c r="C10" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>-10.619</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3">
-        <f>-1*F47</f>
-        <v>5.2270000000000003</v>
+        <f t="shared" ref="F10:G10" si="15">-1*F47</f>
+        <v>9.3409999999999993</v>
       </c>
       <c r="G10" s="3">
-        <f>-1*G47</f>
-        <v>2.6459999999999999</v>
+        <f t="shared" si="15"/>
+        <v>4.4725000000000001</v>
       </c>
       <c r="H10" s="3">
-        <f>-1*H47</f>
-        <v>3.419</v>
+        <f t="shared" ref="H10" si="16">-1*H47</f>
+        <v>4.3724999999999996</v>
       </c>
       <c r="I10" s="3">
-        <f>-1*I47</f>
+        <f t="shared" ref="I10:K10" si="17">-1*I47</f>
         <v>5.9639999999999998E-5</v>
       </c>
       <c r="J10" s="3">
-        <f>-1*J47</f>
+        <f t="shared" si="17"/>
         <v>1.0670000000000001E-4</v>
       </c>
       <c r="K10" s="3">
-        <f>-1*K47</f>
+        <f t="shared" si="17"/>
         <v>5.4790000000000004E-4</v>
       </c>
     </row>
@@ -910,34 +910,34 @@
       <c r="C11" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>-10.619</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <f>-1*F46</f>
-        <v>5.2270000000000003</v>
+        <f t="shared" ref="F11:G11" si="18">-1*F46</f>
+        <v>9.3409999999999993</v>
       </c>
       <c r="G11" s="3">
-        <f>-1*G46</f>
-        <v>2.6459999999999999</v>
+        <f t="shared" si="18"/>
+        <v>4.4725000000000001</v>
       </c>
       <c r="H11" s="3">
-        <f>-1*H46</f>
-        <v>3.419</v>
+        <f t="shared" ref="H11" si="19">-1*H46</f>
+        <v>4.3724999999999996</v>
       </c>
       <c r="I11" s="3">
-        <f>-1*I46</f>
+        <f t="shared" ref="I11:K11" si="20">-1*I46</f>
         <v>5.9639999999999998E-5</v>
       </c>
       <c r="J11" s="3">
-        <f>-1*J46</f>
+        <f t="shared" si="20"/>
         <v>1.0670000000000001E-4</v>
       </c>
       <c r="K11" s="3">
-        <f>-1*K46</f>
+        <f t="shared" si="20"/>
         <v>5.4790000000000004E-4</v>
       </c>
     </row>
@@ -951,34 +951,34 @@
       <c r="C12" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>-10.619</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <f>-1*F45</f>
-        <v>4.6459999999999999</v>
+        <f t="shared" ref="F12:G12" si="21">-1*F45</f>
+        <v>8.3030000000000008</v>
       </c>
       <c r="G12" s="3">
-        <f>-1*G45</f>
-        <v>2.3519999999999999</v>
+        <f t="shared" si="21"/>
+        <v>3.9754999999999998</v>
       </c>
       <c r="H12" s="3">
-        <f>-1*H45</f>
-        <v>3.0390000000000001</v>
+        <f t="shared" ref="H12" si="22">-1*H45</f>
+        <v>3.8864999999999998</v>
       </c>
       <c r="I12" s="3">
-        <f>-1*I45</f>
+        <f t="shared" ref="I12:K12" si="23">-1*I45</f>
         <v>5.3010000000000002E-5</v>
       </c>
       <c r="J12" s="3">
-        <f>-1*J45</f>
+        <f t="shared" si="23"/>
         <v>9.4840000000000007E-5</v>
       </c>
       <c r="K12" s="3">
-        <f>-1*K45</f>
+        <f t="shared" si="23"/>
         <v>4.8700000000000002E-4</v>
       </c>
     </row>
@@ -992,34 +992,34 @@
       <c r="C13" s="3">
         <v>23.032</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>-8.9866000000000005E-8</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <f>-1*F44</f>
-        <v>7.548</v>
+        <f t="shared" ref="F13:G13" si="24">-1*F44</f>
+        <v>12.654999999999999</v>
       </c>
       <c r="G13" s="3">
-        <f>-1*G44</f>
-        <v>1.742</v>
+        <f t="shared" si="24"/>
+        <v>3.0609999999999999</v>
       </c>
       <c r="H13" s="3">
-        <f>-1*H44</f>
-        <v>-3.0390000000000001</v>
+        <f t="shared" ref="H13" si="25">-1*H44</f>
+        <v>-3.8864999999999998</v>
       </c>
       <c r="I13" s="3">
-        <f>-1*I44</f>
+        <f t="shared" ref="I13:K13" si="26">-1*I44</f>
         <v>9.8480000000000006E-5</v>
       </c>
       <c r="J13" s="3">
-        <f>-1*J44</f>
+        <f t="shared" si="26"/>
         <v>5.3010000000000002E-5</v>
       </c>
       <c r="K13" s="3">
-        <f>-1*K44</f>
+        <f t="shared" si="26"/>
         <v>-4.8700000000000002E-4</v>
       </c>
     </row>
@@ -1033,34 +1033,34 @@
       <c r="C14" s="3">
         <v>23.032</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>-8.9866000000000005E-8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3">
-        <f>-1*F43</f>
-        <v>6.6050000000000004</v>
+        <f t="shared" ref="F14:G14" si="27">-1*F43</f>
+        <v>11.07</v>
       </c>
       <c r="G14" s="3">
-        <f>-1*G43</f>
-        <v>1.524</v>
+        <f t="shared" si="27"/>
+        <v>2.6779999999999999</v>
       </c>
       <c r="H14" s="3">
-        <f>-1*H43</f>
-        <v>-2.6589999999999998</v>
+        <f t="shared" ref="H14" si="28">-1*H43</f>
+        <v>-3.4005000000000001</v>
       </c>
       <c r="I14" s="3">
-        <f>-1*I43</f>
+        <f t="shared" ref="I14:K14" si="29">-1*I43</f>
         <v>8.2990000000000003E-5</v>
       </c>
       <c r="J14" s="3">
-        <f>-1*J43</f>
+        <f t="shared" si="29"/>
         <v>4.638E-5</v>
       </c>
       <c r="K14" s="3">
-        <f>-1*K43</f>
+        <f t="shared" si="29"/>
         <v>-4.261E-4</v>
       </c>
     </row>
@@ -1074,34 +1074,34 @@
       <c r="C15" s="3">
         <v>23.032</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>-8.9866000000000005E-8</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3">
-        <f>-1*F42</f>
-        <v>6.6050000000000004</v>
+        <f t="shared" ref="F15:G15" si="30">-1*F42</f>
+        <v>11.07</v>
       </c>
       <c r="G15" s="3">
-        <f>-1*G42</f>
-        <v>1.524</v>
+        <f t="shared" si="30"/>
+        <v>2.6779999999999999</v>
       </c>
       <c r="H15" s="3">
-        <f>-1*H42</f>
-        <v>-2.6589999999999998</v>
+        <f t="shared" ref="H15" si="31">-1*H42</f>
+        <v>-3.4005000000000001</v>
       </c>
       <c r="I15" s="3">
-        <f>-1*I42</f>
+        <f t="shared" ref="I15:K15" si="32">-1*I42</f>
         <v>8.2990000000000003E-5</v>
       </c>
       <c r="J15" s="3">
-        <f>-1*J42</f>
+        <f t="shared" si="32"/>
         <v>4.638E-5</v>
       </c>
       <c r="K15" s="3">
-        <f>-1*K42</f>
+        <f t="shared" si="32"/>
         <v>-4.261E-4</v>
       </c>
     </row>
@@ -1115,34 +1115,34 @@
       <c r="C16" s="3">
         <v>-1.7831999999999999</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>8.9866000000000005E-8</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="3">
-        <f>-1*F41</f>
-        <v>5.6609999999999996</v>
+        <f t="shared" ref="F16:G16" si="33">-1*F41</f>
+        <v>9.4905000000000008</v>
       </c>
       <c r="G16" s="3">
-        <f>-1*G41</f>
-        <v>1.3069999999999999</v>
+        <f t="shared" si="33"/>
+        <v>2.2955000000000001</v>
       </c>
       <c r="H16" s="3">
-        <f>-1*H41</f>
-        <v>-2.2789999999999999</v>
+        <f t="shared" ref="H16" si="34">-1*H41</f>
+        <v>-2.915</v>
       </c>
       <c r="I16" s="3">
-        <f>-1*I41</f>
+        <f t="shared" ref="I16:K16" si="35">-1*I41</f>
         <v>7.1130000000000005E-5</v>
       </c>
       <c r="J16" s="3">
-        <f>-1*J41</f>
+        <f t="shared" si="35"/>
         <v>3.9759999999999999E-5</v>
       </c>
       <c r="K16" s="3">
-        <f>-1*K41</f>
+        <f t="shared" si="35"/>
         <v>-3.6529999999999999E-4</v>
       </c>
     </row>
@@ -1156,34 +1156,34 @@
       <c r="C17" s="3">
         <v>-1.7831999999999999</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>8.9866000000000005E-8</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3">
-        <f>-1*F40</f>
-        <v>5.6609999999999996</v>
+        <f t="shared" ref="F17:G17" si="36">-1*F40</f>
+        <v>9.4905000000000008</v>
       </c>
       <c r="G17" s="3">
-        <f>-1*G40</f>
-        <v>1.3069999999999999</v>
+        <f t="shared" si="36"/>
+        <v>2.2955000000000001</v>
       </c>
       <c r="H17" s="3">
-        <f>-1*H40</f>
-        <v>-2.2789999999999999</v>
+        <f t="shared" ref="H17" si="37">-1*H40</f>
+        <v>-2.915</v>
       </c>
       <c r="I17" s="3">
-        <f>-1*I40</f>
+        <f t="shared" ref="I17:K17" si="38">-1*I40</f>
         <v>7.1130000000000005E-5</v>
       </c>
       <c r="J17" s="3">
-        <f>-1*J40</f>
+        <f t="shared" si="38"/>
         <v>3.9759999999999999E-5</v>
       </c>
       <c r="K17" s="3">
-        <f>-1*K40</f>
+        <f t="shared" si="38"/>
         <v>-3.6529999999999999E-4</v>
       </c>
     </row>
@@ -1197,34 +1197,34 @@
       <c r="C18" s="3">
         <v>23.032</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>-8.9866000000000005E-8</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="3">
-        <f>-1*F39</f>
-        <v>4.718</v>
+        <f t="shared" ref="F18:G18" si="39">-1*F39</f>
+        <v>7.9089999999999998</v>
       </c>
       <c r="G18" s="3">
-        <f>-1*G39</f>
-        <v>1.089</v>
+        <f t="shared" si="39"/>
+        <v>1.9135</v>
       </c>
       <c r="H18" s="3">
-        <f>-1*H39</f>
-        <v>-1.899</v>
+        <f t="shared" ref="H18" si="40">-1*H39</f>
+        <v>-2.4289999999999998</v>
       </c>
       <c r="I18" s="3">
-        <f>-1*I39</f>
+        <f t="shared" ref="I18:K18" si="41">-1*I39</f>
         <v>5.9280000000000002E-5</v>
       </c>
       <c r="J18" s="3">
-        <f>-1*J39</f>
+        <f t="shared" si="41"/>
         <v>3.3130000000000003E-5</v>
       </c>
       <c r="K18" s="3">
-        <f>-1*K39</f>
+        <f t="shared" si="41"/>
         <v>-3.0440000000000003E-4</v>
       </c>
     </row>
@@ -1238,34 +1238,34 @@
       <c r="C19" s="3">
         <v>23.032</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>-8.9866000000000005E-8</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3">
-        <f>-1*F38</f>
-        <v>4.718</v>
+        <f t="shared" ref="F19:G19" si="42">-1*F38</f>
+        <v>7.9089999999999998</v>
       </c>
       <c r="G19" s="3">
-        <f>-1*G38</f>
-        <v>1.089</v>
+        <f t="shared" si="42"/>
+        <v>1.9135</v>
       </c>
       <c r="H19" s="3">
-        <f>-1*H38</f>
-        <v>-1.899</v>
+        <f t="shared" ref="H19" si="43">-1*H38</f>
+        <v>-2.4289999999999998</v>
       </c>
       <c r="I19" s="3">
-        <f>-1*I38</f>
+        <f t="shared" ref="I19:K19" si="44">-1*I38</f>
         <v>5.9280000000000002E-5</v>
       </c>
       <c r="J19" s="3">
-        <f>-1*J38</f>
+        <f t="shared" si="44"/>
         <v>3.3130000000000003E-5</v>
       </c>
       <c r="K19" s="3">
-        <f>-1*K38</f>
+        <f t="shared" si="44"/>
         <v>-3.0440000000000003E-4</v>
       </c>
     </row>
@@ -1279,34 +1279,34 @@
       <c r="C20" s="3">
         <v>23.032</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>-8.9866000000000005E-8</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="3">
-        <f>-1*F37</f>
-        <v>3.774</v>
+        <f t="shared" ref="F20:G20" si="45">-1*F37</f>
+        <v>6.3274999999999997</v>
       </c>
       <c r="G20" s="3">
-        <f>-1*G37</f>
-        <v>0.87109999999999999</v>
+        <f t="shared" si="45"/>
+        <v>1.5305</v>
       </c>
       <c r="H20" s="3">
-        <f>-1*H37</f>
-        <v>-1.52</v>
+        <f t="shared" ref="H20" si="46">-1*H37</f>
+        <v>-1.9435</v>
       </c>
       <c r="I20" s="3">
-        <f>-1*I37</f>
+        <f t="shared" ref="I20:K20" si="47">-1*I37</f>
         <v>4.7420000000000003E-5</v>
       </c>
       <c r="J20" s="3">
-        <f>-1*J37</f>
+        <f t="shared" si="47"/>
         <v>2.6509999999999999E-5</v>
       </c>
       <c r="K20" s="3">
-        <f>-1*K37</f>
+        <f t="shared" si="47"/>
         <v>-2.4350000000000001E-4</v>
       </c>
     </row>
@@ -1320,34 +1320,34 @@
       <c r="C21" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>-10.619</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3">
-        <f>-1*F36</f>
-        <v>-5.3970000000000002</v>
+        <f t="shared" ref="F21:G21" si="48">-1*F36</f>
+        <v>-5.5614999999999997</v>
       </c>
       <c r="G21" s="3">
-        <f>-1*G36</f>
-        <v>2.7989999999999999</v>
+        <f t="shared" si="48"/>
+        <v>4.03</v>
       </c>
       <c r="H21" s="3">
-        <f>-1*H36</f>
-        <v>-0.1305</v>
+        <f t="shared" ref="H21" si="49">-1*H36</f>
+        <v>-0.19570000000000001</v>
       </c>
       <c r="I21" s="3">
-        <f>-1*I36</f>
+        <f t="shared" ref="I21:K21" si="50">-1*I36</f>
         <v>-8.4790000000000006E-5</v>
       </c>
       <c r="J21" s="3">
-        <f>-1*J36</f>
+        <f t="shared" si="50"/>
         <v>1.5870000000000001E-4</v>
       </c>
       <c r="K21" s="3">
-        <f>-1*K36</f>
+        <f t="shared" si="50"/>
         <v>-2.092E-5</v>
       </c>
     </row>
@@ -1361,34 +1361,34 @@
       <c r="C22" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <v>-10.619</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="3">
-        <f>-1*F35</f>
-        <v>-4.048</v>
+        <f t="shared" ref="F22:G22" si="51">-1*F35</f>
+        <v>-4.1710000000000003</v>
       </c>
       <c r="G22" s="3">
-        <f>-1*G35</f>
-        <v>2.0990000000000002</v>
+        <f t="shared" si="51"/>
+        <v>3.0219999999999998</v>
       </c>
       <c r="H22" s="3">
-        <f>-1*H35</f>
-        <v>-9.7890000000000005E-2</v>
+        <f t="shared" ref="H22" si="52">-1*H35</f>
+        <v>-0.14680000000000001</v>
       </c>
       <c r="I22" s="3">
-        <f>-1*I35</f>
+        <f t="shared" ref="I22:K22" si="53">-1*I35</f>
         <v>-6.3590000000000006E-5</v>
       </c>
       <c r="J22" s="3">
-        <f>-1*J35</f>
+        <f t="shared" si="53"/>
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="K22" s="3">
-        <f>-1*K35</f>
+        <f t="shared" si="53"/>
         <v>-1.5690000000000001E-5</v>
       </c>
     </row>
@@ -1402,34 +1402,34 @@
       <c r="C23" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>-10.619</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="3">
-        <f>-1*F34</f>
-        <v>-4.048</v>
+        <f t="shared" ref="F23:G23" si="54">-1*F34</f>
+        <v>-4.1710000000000003</v>
       </c>
       <c r="G23" s="3">
-        <f>-1*G34</f>
-        <v>2.0990000000000002</v>
+        <f t="shared" si="54"/>
+        <v>3.0219999999999998</v>
       </c>
       <c r="H23" s="3">
-        <f>-1*H34</f>
-        <v>-9.7890000000000005E-2</v>
+        <f t="shared" ref="H23" si="55">-1*H34</f>
+        <v>-0.14680000000000001</v>
       </c>
       <c r="I23" s="3">
-        <f>-1*I34</f>
+        <f t="shared" ref="I23:K23" si="56">-1*I34</f>
         <v>-6.3590000000000006E-5</v>
       </c>
       <c r="J23" s="3">
-        <f>-1*J34</f>
+        <f t="shared" si="56"/>
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="K23" s="3">
-        <f>-1*K34</f>
+        <f t="shared" si="56"/>
         <v>-1.5690000000000001E-5</v>
       </c>
     </row>
@@ -1443,34 +1443,34 @@
       <c r="C24" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>-10.619</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="3">
-        <f>-1*F33</f>
-        <v>-2.6989999999999998</v>
+        <f t="shared" ref="F24:G24" si="57">-1*F33</f>
+        <v>-2.7810000000000001</v>
       </c>
       <c r="G24" s="3">
-        <f>-1*G33</f>
-        <v>1.4</v>
+        <f t="shared" si="57"/>
+        <v>2.0150000000000001</v>
       </c>
       <c r="H24" s="3">
-        <f>-1*H33</f>
-        <v>-6.5259999999999999E-2</v>
+        <f t="shared" ref="H24" si="58">-1*H33</f>
+        <v>-9.7860000000000003E-2</v>
       </c>
       <c r="I24" s="3">
-        <f>-1*I33</f>
+        <f t="shared" ref="I24:K24" si="59">-1*I33</f>
         <v>-4.2400000000000001E-5</v>
       </c>
       <c r="J24" s="3">
-        <f>-1*J33</f>
+        <f t="shared" si="59"/>
         <v>7.9359999999999999E-5</v>
       </c>
       <c r="K24" s="3">
-        <f>-1*K33</f>
+        <f t="shared" si="59"/>
         <v>-1.046E-5</v>
       </c>
     </row>
@@ -1484,34 +1484,34 @@
       <c r="C25" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>10.619</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="3">
-        <f>-1*F32</f>
-        <v>-2.6989999999999998</v>
+        <f t="shared" ref="F25:G25" si="60">-1*F32</f>
+        <v>-2.7810000000000001</v>
       </c>
       <c r="G25" s="3">
-        <f>-1*G32</f>
-        <v>1.4</v>
+        <f t="shared" si="60"/>
+        <v>2.0150000000000001</v>
       </c>
       <c r="H25" s="3">
-        <f>-1*H32</f>
-        <v>-6.5259999999999999E-2</v>
+        <f t="shared" ref="H25" si="61">-1*H32</f>
+        <v>-9.7860000000000003E-2</v>
       </c>
       <c r="I25" s="3">
-        <f>-1*I32</f>
+        <f t="shared" ref="I25:K25" si="62">-1*I32</f>
         <v>-4.2400000000000001E-5</v>
       </c>
       <c r="J25" s="3">
-        <f>-1*J32</f>
+        <f t="shared" si="62"/>
         <v>7.9359999999999999E-5</v>
       </c>
       <c r="K25" s="3">
-        <f>-1*K32</f>
+        <f t="shared" si="62"/>
         <v>-1.046E-5</v>
       </c>
     </row>
@@ -1525,34 +1525,34 @@
       <c r="C26" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <v>10.619</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="3">
-        <f>-1*F31</f>
-        <v>-1.349</v>
+        <f t="shared" ref="F26:G26" si="63">-1*F31</f>
+        <v>-1.3905000000000001</v>
       </c>
       <c r="G26" s="3">
-        <f>-1*G31</f>
-        <v>0.69979999999999998</v>
+        <f t="shared" si="63"/>
+        <v>1.0075000000000001</v>
       </c>
       <c r="H26" s="3">
-        <f>-1*H31</f>
-        <v>-3.2629999999999999E-2</v>
+        <f t="shared" ref="H26" si="64">-1*H31</f>
+        <v>-4.8930000000000001E-2</v>
       </c>
       <c r="I26" s="3">
-        <f>-1*I31</f>
+        <f t="shared" ref="I26:K26" si="65">-1*I31</f>
         <v>-2.12E-5</v>
       </c>
       <c r="J26" s="3">
-        <f>-1*J31</f>
+        <f t="shared" si="65"/>
         <v>3.968E-5</v>
       </c>
       <c r="K26" s="3">
-        <f>-1*K31</f>
+        <f t="shared" si="65"/>
         <v>-5.2290000000000002E-6</v>
       </c>
     </row>
@@ -1566,20 +1566,20 @@
       <c r="C27" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>10.619</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="3">
-        <v>2.8740000000000001</v>
+        <v>4.01</v>
       </c>
       <c r="G27" s="3">
-        <v>-0.188</v>
-      </c>
-      <c r="H27" s="4">
-        <v>3.2599999999999997E-2</v>
+        <v>-0.12784999999999999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-4.8930000000000001E-2</v>
       </c>
       <c r="I27" s="4">
         <v>3.968E-5</v>
@@ -1601,20 +1601,20 @@
       <c r="C28" s="3">
         <v>10.624000000000001</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <v>10.619</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="4">
-        <v>4.198E-15</v>
+        <v>5.8580000000000001E-15</v>
       </c>
       <c r="G28" s="4">
-        <v>-2.7460000000000001E-16</v>
+        <v>-1.868E-16</v>
       </c>
       <c r="H28" s="4">
-        <v>-4.767E-17</v>
+        <v>7.1480000000000005E-17</v>
       </c>
       <c r="I28" s="4">
         <v>5.7960000000000003E-20</v>
@@ -1631,13 +1631,13 @@
         <v>15</v>
       </c>
       <c r="F29" s="4">
-        <v>-4.198E-15</v>
+        <v>-5.8580000000000001E-15</v>
       </c>
       <c r="G29" s="4">
-        <v>2.7460000000000001E-16</v>
+        <v>1.868E-16</v>
       </c>
       <c r="H29" s="4">
-        <v>-4.767E-17</v>
+        <v>-7.1480000000000005E-17</v>
       </c>
       <c r="I29" s="4">
         <v>-5.7960000000000003E-20</v>
@@ -1654,13 +1654,13 @@
         <v>16</v>
       </c>
       <c r="F30" s="3">
-        <v>-2.8740000000000001</v>
+        <v>-4.01</v>
       </c>
       <c r="G30" s="3">
-        <v>0.188</v>
+        <v>0.12784999999999999</v>
       </c>
       <c r="H30" s="4">
-        <v>-3.2629999999999999E-2</v>
+        <v>-4.8930000000000001E-2</v>
       </c>
       <c r="I30" s="4">
         <v>-3.968E-5</v>
@@ -1677,13 +1677,13 @@
         <v>13</v>
       </c>
       <c r="F31" s="3">
-        <v>1.349</v>
+        <v>1.3905000000000001</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.69979999999999998</v>
+        <v>-1.0075000000000001</v>
       </c>
       <c r="H31" s="3">
-        <v>3.2629999999999999E-2</v>
+        <v>4.8930000000000001E-2</v>
       </c>
       <c r="I31" s="4">
         <v>2.12E-5</v>
@@ -1700,13 +1700,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="3">
-        <v>2.6989999999999998</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="G32" s="3">
-        <v>-1.4</v>
+        <v>-2.0150000000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>6.5259999999999999E-2</v>
+        <v>9.7860000000000003E-2</v>
       </c>
       <c r="I32" s="4">
         <v>4.2400000000000001E-5</v>
@@ -1723,13 +1723,13 @@
         <v>13</v>
       </c>
       <c r="F33" s="3">
-        <v>2.6989999999999998</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="G33" s="3">
-        <v>-1.4</v>
+        <v>-2.0150000000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>6.5259999999999999E-2</v>
+        <v>9.7860000000000003E-2</v>
       </c>
       <c r="I33" s="4">
         <v>4.2400000000000001E-5</v>
@@ -1746,13 +1746,13 @@
         <v>14</v>
       </c>
       <c r="F34" s="3">
-        <v>4.048</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="G34" s="3">
-        <v>-2.0990000000000002</v>
+        <v>-3.0219999999999998</v>
       </c>
       <c r="H34" s="3">
-        <v>9.7890000000000005E-2</v>
+        <v>0.14680000000000001</v>
       </c>
       <c r="I34" s="4">
         <v>6.3590000000000006E-5</v>
@@ -1769,13 +1769,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="3">
-        <v>4.048</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="G35" s="3">
-        <v>-2.0990000000000002</v>
+        <v>-3.0219999999999998</v>
       </c>
       <c r="H35" s="3">
-        <v>9.7890000000000005E-2</v>
+        <v>0.14680000000000001</v>
       </c>
       <c r="I35" s="4">
         <v>6.3590000000000006E-5</v>
@@ -1792,13 +1792,13 @@
         <v>14</v>
       </c>
       <c r="F36" s="3">
-        <v>5.3970000000000002</v>
+        <v>5.5614999999999997</v>
       </c>
       <c r="G36" s="3">
-        <v>-2.7989999999999999</v>
+        <v>-4.03</v>
       </c>
       <c r="H36" s="3">
-        <v>0.1305</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="I36" s="4">
         <v>8.4790000000000006E-5</v>
@@ -1815,13 +1815,13 @@
         <v>11</v>
       </c>
       <c r="F37" s="3">
-        <v>-3.774</v>
+        <v>-6.3274999999999997</v>
       </c>
       <c r="G37" s="3">
-        <v>-0.87109999999999999</v>
+        <v>-1.5305</v>
       </c>
       <c r="H37" s="3">
-        <v>1.52</v>
+        <v>1.9435</v>
       </c>
       <c r="I37" s="4">
         <v>-4.7420000000000003E-5</v>
@@ -1838,13 +1838,13 @@
         <v>12</v>
       </c>
       <c r="F38" s="3">
-        <v>-4.718</v>
+        <v>-7.9089999999999998</v>
       </c>
       <c r="G38" s="3">
-        <v>-1.089</v>
+        <v>-1.9135</v>
       </c>
       <c r="H38" s="3">
-        <v>1.899</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="I38" s="4">
         <v>-5.9280000000000002E-5</v>
@@ -1861,13 +1861,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="3">
-        <v>-4.718</v>
+        <v>-7.9089999999999998</v>
       </c>
       <c r="G39" s="3">
-        <v>-1.089</v>
+        <v>-1.9135</v>
       </c>
       <c r="H39" s="3">
-        <v>1.899</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="I39" s="4">
         <v>-5.9280000000000002E-5</v>
@@ -1884,13 +1884,13 @@
         <v>12</v>
       </c>
       <c r="F40" s="3">
-        <v>-5.6609999999999996</v>
+        <v>-9.4905000000000008</v>
       </c>
       <c r="G40" s="3">
-        <v>-1.3069999999999999</v>
+        <v>-2.2955000000000001</v>
       </c>
       <c r="H40" s="3">
-        <v>2.2789999999999999</v>
+        <v>2.915</v>
       </c>
       <c r="I40" s="4">
         <v>-7.1130000000000005E-5</v>
@@ -1907,13 +1907,13 @@
         <v>11</v>
       </c>
       <c r="F41" s="3">
-        <v>-5.6609999999999996</v>
+        <v>-9.4905000000000008</v>
       </c>
       <c r="G41" s="3">
-        <v>-1.3069999999999999</v>
+        <v>-2.2955000000000001</v>
       </c>
       <c r="H41" s="3">
-        <v>2.2789999999999999</v>
+        <v>2.915</v>
       </c>
       <c r="I41" s="4">
         <v>-7.1130000000000005E-5</v>
@@ -1930,13 +1930,13 @@
         <v>12</v>
       </c>
       <c r="F42" s="3">
-        <v>-6.6050000000000004</v>
+        <v>-11.07</v>
       </c>
       <c r="G42" s="3">
-        <v>-1.524</v>
+        <v>-2.6779999999999999</v>
       </c>
       <c r="H42" s="3">
-        <v>2.6589999999999998</v>
+        <v>3.4005000000000001</v>
       </c>
       <c r="I42" s="4">
         <v>-8.2990000000000003E-5</v>
@@ -1953,13 +1953,13 @@
         <v>11</v>
       </c>
       <c r="F43" s="3">
-        <v>-6.6050000000000004</v>
+        <v>-11.07</v>
       </c>
       <c r="G43" s="3">
-        <v>-1.524</v>
+        <v>-2.6779999999999999</v>
       </c>
       <c r="H43" s="3">
-        <v>2.6589999999999998</v>
+        <v>3.4005000000000001</v>
       </c>
       <c r="I43" s="4">
         <v>-8.2990000000000003E-5</v>
@@ -1976,13 +1976,13 @@
         <v>12</v>
       </c>
       <c r="F44" s="3">
-        <v>-7.548</v>
+        <v>-12.654999999999999</v>
       </c>
       <c r="G44" s="3">
-        <v>-1.742</v>
+        <v>-3.0609999999999999</v>
       </c>
       <c r="H44" s="3">
-        <v>3.0390000000000001</v>
+        <v>3.8864999999999998</v>
       </c>
       <c r="I44" s="4">
         <v>-9.8480000000000006E-5</v>
@@ -1995,17 +1995,17 @@
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="3">
-        <v>-4.6459999999999999</v>
+        <v>-8.3030000000000008</v>
       </c>
       <c r="G45" s="3">
-        <v>-2.3519999999999999</v>
+        <v>-3.9754999999999998</v>
       </c>
       <c r="H45" s="3">
-        <v>-3.0390000000000001</v>
+        <v>-3.8864999999999998</v>
       </c>
       <c r="I45" s="4">
         <v>-5.3010000000000002E-5</v>
@@ -2018,17 +2018,17 @@
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="3">
-        <v>-5.2270000000000003</v>
+        <v>-9.3409999999999993</v>
       </c>
       <c r="G46" s="3">
-        <v>-2.6459999999999999</v>
+        <v>-4.4725000000000001</v>
       </c>
       <c r="H46" s="3">
-        <v>-3.419</v>
+        <v>-4.3724999999999996</v>
       </c>
       <c r="I46" s="4">
         <v>-5.9639999999999998E-5</v>
@@ -2041,17 +2041,17 @@
       </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="3">
-        <v>-5.2270000000000003</v>
+        <v>-9.3409999999999993</v>
       </c>
       <c r="G47" s="3">
-        <v>-2.6459999999999999</v>
+        <v>-4.4725000000000001</v>
       </c>
       <c r="H47" s="3">
-        <v>-3.419</v>
+        <v>-4.3724999999999996</v>
       </c>
       <c r="I47" s="4">
         <v>-5.9639999999999998E-5</v>
@@ -2064,17 +2064,17 @@
       </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="3">
-        <v>-5.8079999999999998</v>
+        <v>-10.375</v>
       </c>
       <c r="G48" s="3">
-        <v>-2.94</v>
+        <v>-4.97</v>
       </c>
       <c r="H48" s="3">
-        <v>-3.7989999999999999</v>
+        <v>-4.8579999999999997</v>
       </c>
       <c r="I48" s="4">
         <v>-6.6260000000000006E-5</v>
@@ -2087,17 +2087,17 @@
       </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="3">
-        <v>-5.8079999999999998</v>
+        <v>-10.375</v>
       </c>
       <c r="G49" s="3">
-        <v>-2.94</v>
+        <v>-4.97</v>
       </c>
       <c r="H49" s="3">
-        <v>-3.7989999999999999</v>
+        <v>-4.8579999999999997</v>
       </c>
       <c r="I49" s="4">
         <v>-6.6260000000000006E-5</v>
@@ -2110,17 +2110,17 @@
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3">
-        <v>-6.3890000000000002</v>
+        <v>-11.42</v>
       </c>
       <c r="G50" s="3">
-        <v>-3.234</v>
+        <v>-5.4664999999999999</v>
       </c>
       <c r="H50" s="3">
-        <v>-4.1790000000000003</v>
+        <v>-5.3440000000000003</v>
       </c>
       <c r="I50" s="4">
         <v>-7.2890000000000002E-5</v>
@@ -2133,17 +2133,17 @@
       </c>
     </row>
     <row r="51" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="3">
-        <v>-6.3890000000000002</v>
+        <v>-11.42</v>
       </c>
       <c r="G51" s="3">
-        <v>-3.234</v>
+        <v>-5.4664999999999999</v>
       </c>
       <c r="H51" s="3">
-        <v>-4.1790000000000003</v>
+        <v>-5.3440000000000003</v>
       </c>
       <c r="I51" s="4">
         <v>-7.2890000000000002E-5</v>
@@ -2156,17 +2156,17 @@
       </c>
     </row>
     <row r="52" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="3">
-        <v>-6.9690000000000003</v>
+        <v>-12.455</v>
       </c>
       <c r="G52" s="3">
-        <v>-3.528</v>
+        <v>-5.9634999999999998</v>
       </c>
       <c r="H52" s="3">
-        <v>-4.5590000000000002</v>
+        <v>-5.83</v>
       </c>
       <c r="I52" s="4">
         <v>-7.9519999999999998E-5</v>

--- a/Projeto 2 - parte 2/Results_tensao.xlsx
+++ b/Projeto 2 - parte 2/Results_tensao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Farinha\Desktop\MCL\Parte2\Final_tensao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alves\Desktop\MCL\Projeto 2 - parte 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AC29F-64B5-404D-92AB-21016E255FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A82E6B3-7C27-46B3-8A7A-B34EB03655FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Tração</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>Extensões</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Mpa</t>
+  </si>
+  <si>
+    <t>Gpa</t>
+  </si>
+  <si>
+    <t>Exx FEM</t>
+  </si>
+  <si>
+    <t>Exx Teoria Clássica</t>
   </si>
 </sst>
 </file>
@@ -553,18 +568,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -577,7 +592,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
         <v>1</v>
@@ -594,8 +609,14 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3">
+        <v>257.69726249999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>-45</v>
       </c>
@@ -680,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>-45</v>
       </c>
@@ -733,7 +754,7 @@
         <v>1.44E-11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>-45</v>
       </c>
@@ -777,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>-45</v>
       </c>
@@ -818,7 +839,7 @@
         <v>6.0880000000000005E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45</v>
       </c>
@@ -858,8 +879,18 @@
         <f t="shared" si="14"/>
         <v>6.0880000000000005E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9">
+        <f>9000/(R3*R6)</f>
+        <v>28302.027241263026</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45</v>
       </c>
@@ -899,8 +930,15 @@
         <f t="shared" si="17"/>
         <v>5.4790000000000004E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f>R9*10^-3</f>
+        <v>28.302027241263026</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45</v>
       </c>
@@ -940,8 +978,18 @@
         <f t="shared" si="20"/>
         <v>5.4790000000000004E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11">
+        <f>9000/(0.0012356*R3)</f>
+        <v>28265.378452345885</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45</v>
       </c>
@@ -981,8 +1029,15 @@
         <f t="shared" si="23"/>
         <v>4.8700000000000002E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f>R11*10^-3</f>
+        <v>28.265378452345885</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>90</v>
       </c>
@@ -1023,7 +1078,7 @@
         <v>-4.8700000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>90</v>
       </c>
@@ -1064,7 +1119,7 @@
         <v>-4.261E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>90</v>
       </c>
@@ -1105,7 +1160,7 @@
         <v>-4.261E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -1146,7 +1201,7 @@
         <v>-3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -1187,7 +1242,7 @@
         <v>-3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>90</v>
       </c>
@@ -1228,7 +1283,7 @@
         <v>-3.0440000000000003E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>90</v>
       </c>
@@ -1269,7 +1324,7 @@
         <v>-3.0440000000000003E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>90</v>
       </c>
@@ -1310,7 +1365,7 @@
         <v>-2.4350000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45</v>
       </c>
@@ -1351,7 +1406,7 @@
         <v>-2.092E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45</v>
       </c>
@@ -1392,7 +1447,7 @@
         <v>-1.5690000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45</v>
       </c>
@@ -1433,7 +1488,7 @@
         <v>-1.5690000000000001E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45</v>
       </c>
@@ -1474,7 +1529,7 @@
         <v>-1.046E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>-45</v>
       </c>
@@ -1515,7 +1570,7 @@
         <v>-1.046E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>-45</v>
       </c>
@@ -1556,7 +1611,7 @@
         <v>-5.2290000000000002E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>-45</v>
       </c>
@@ -1591,7 +1646,7 @@
         <v>5.2290000000000002E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>-45</v>
       </c>
@@ -1626,7 +1681,7 @@
         <v>7.6389999999999997E-21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1704,7 @@
         <v>-7.6389999999999997E-21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1727,7 @@
         <v>-5.2290000000000002E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
@@ -1695,7 +1750,7 @@
         <v>5.2290000000000002E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1773,7 @@
         <v>1.046E-5</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
@@ -1741,7 +1796,7 @@
         <v>1.046E-5</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" s="3" t="s">
         <v>14</v>
       </c>
@@ -1764,7 +1819,7 @@
         <v>1.5690000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1842,7 @@
         <v>1.5690000000000001E-5</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" s="3" t="s">
         <v>14</v>
       </c>
@@ -1810,7 +1865,7 @@
         <v>2.092E-5</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" s="3" t="s">
         <v>11</v>
       </c>
@@ -1833,7 +1888,7 @@
         <v>2.4350000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1911,7 @@
         <v>3.0440000000000003E-4</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" s="3" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1934,7 @@
         <v>3.0440000000000003E-4</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" s="3" t="s">
         <v>12</v>
       </c>
@@ -1902,7 +1957,7 @@
         <v>3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +1980,7 @@
         <v>3.6529999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
@@ -1948,7 +2003,7 @@
         <v>4.261E-4</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" s="3" t="s">
         <v>11</v>
       </c>
@@ -1971,7 +2026,7 @@
         <v>4.261E-4</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" s="3" t="s">
         <v>12</v>
       </c>
@@ -1994,7 +2049,7 @@
         <v>4.8700000000000002E-4</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" s="12" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +2072,7 @@
         <v>-4.8700000000000002E-4</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" s="12" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2095,7 @@
         <v>-5.4790000000000004E-4</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" s="12" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2118,7 @@
         <v>-5.4790000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" s="12" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2141,7 @@
         <v>-6.0880000000000005E-4</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" s="12" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +2164,7 @@
         <v>-6.0880000000000005E-4</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" s="12" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +2187,7 @@
         <v>-6.6960000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" s="12" t="s">
         <v>9</v>
       </c>
@@ -2155,7 +2210,7 @@
         <v>-6.6960000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E52" s="12" t="s">
         <v>10</v>
       </c>
